--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -19,10 +19,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +88,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -117,6 +116,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,34 +1379,85 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>44363.79597143106</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>44363.79597143518</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
         <is>
           <t>live_145_hf2</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5" t="n">
         <v>154</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>3.2</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44364.55590756945</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>145_data_hstry</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
     <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="B15" s="8" t="n"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2021-06-17</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>44364.5852685497</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>145_hstry_data</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>154</v>
+      </c>
+      <c r="E15" t="n">
+        <v>153</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="6"/>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -21,8 +21,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -115,7 +115,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,29 +779,29 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>44365.50769958779</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" s="10" t="n">
+        <v>44365.50769958334</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>145_fnltstfrdy</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>154</v>
-      </c>
-      <c r="E11" t="n">
-        <v>154</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>3.29</v>
       </c>
     </row>
@@ -1430,13 +1434,31 @@
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="6">
-      <c r="A11" s="5" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-18</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>44365.77684827248</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>145_lstrnfdy</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
       <c r="A12" s="5" t="n"/>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -89,7 +89,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -117,9 +117,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,13 +478,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -778,13 +775,13 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15" customHeight="1" s="6">
       <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n">
+      <c r="B11" s="8" t="n">
         <v>44365.50769958334</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
@@ -803,6 +800,168 @@
       </c>
       <c r="G11" s="5" t="n">
         <v>3.29</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-21</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>44368.71602778935</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>145_mndyto</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-25</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>44372.82152921296</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_msttomst</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>44375.52019765046</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_thrdcycle</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="n">
+        <v>44375.55571741898</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_thrdcycle</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="n">
+        <v>44375.72375651621</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>146_rgrsncycle</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44376.27301332176</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>146_finalrun</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>2.86</v>
       </c>
     </row>
   </sheetData>
@@ -818,13 +977,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -1113,6 +1272,33 @@
       </c>
       <c r="G10" s="5" t="n">
         <v>2.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>44376.59489491161</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>146_beta</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>154</v>
+      </c>
+      <c r="E11" t="n">
+        <v>153</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.02</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6"/>
@@ -1136,13 +1322,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>
@@ -1439,8 +1625,8 @@
           <t>2021-06-18</t>
         </is>
       </c>
-      <c r="B11" s="11" t="n">
-        <v>44365.77684827248</v>
+      <c r="B11" s="8" t="n">
+        <v>44365.77684827546</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
@@ -1461,41 +1647,35 @@
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="6">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="5" t="n"/>
-      <c r="G12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="13.8" customHeight="1" s="6">
-      <c r="A13" s="5" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="5" t="n"/>
-      <c r="E13" s="5" t="n"/>
-      <c r="F13" s="5" t="n"/>
-      <c r="G13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="13.8" customHeight="1" s="6">
-      <c r="A14" s="5" t="n"/>
-      <c r="B14" s="5" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="5" t="n"/>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="13.8" customHeight="1" s="6">
-      <c r="A15" s="5" t="n"/>
-      <c r="B15" s="5" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="5" t="n"/>
-      <c r="E15" s="5" t="n"/>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="5" t="n"/>
-    </row>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="n">
+        <v>44369.80189414352</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>145_hotfixtue</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="6"/>
+    <row r="14" ht="13.8" customHeight="1" s="6"/>
+    <row r="15" ht="13.8" customHeight="1" s="6"/>
     <row r="16" ht="13.8" customHeight="1" s="6"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -1516,7 +1696,7 @@
       <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.17" customWidth="1" style="5" min="1" max="1"/>
     <col width="19.44" customWidth="1" style="5" min="2" max="2"/>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -962,6 +962,33 @@
       </c>
       <c r="G17" s="5" t="n">
         <v>2.86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-05</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44382.72946319445</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>146_htfrplica</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>145</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>6.16</v>
       </c>
     </row>
   </sheetData>
@@ -1275,29 +1302,29 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>2021-06-29</t>
         </is>
       </c>
       <c r="B11" s="10" t="n">
-        <v>44376.59489491161</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>44376.59489490741</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>146_beta</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>154</v>
-      </c>
-      <c r="E11" t="n">
-        <v>153</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="D11" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>3.02</v>
       </c>
     </row>
@@ -1322,7 +1349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1673,10 +1700,114 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="6"/>
-    <row r="14" ht="13.8" customHeight="1" s="6"/>
-    <row r="15" ht="13.8" customHeight="1" s="6"/>
-    <row r="16" ht="13.8" customHeight="1" s="6"/>
+    <row r="13" ht="13.8" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44376.84958870371</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>146_livetst</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-02</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44379.65628324074</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>146_infrachngs</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-05</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44382.85308583333</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>146_hftrlsmndy</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="6">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2021-07-08</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44385.30145096128</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>146_earlyip</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>154</v>
+      </c>
+      <c r="E16" t="n">
+        <v>141</v>
+      </c>
+      <c r="F16" t="n">
+        <v>13</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -991,6 +991,60 @@
         <v>6.16</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-20</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44397.72947530093</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>147_firsttest</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44399.64932070602</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>147_tolive</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1004,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1328,9 +1382,87 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="6"/>
-    <row r="13" ht="13.8" customHeight="1" s="6"/>
-    <row r="14" ht="13.8" customHeight="1" s="6"/>
+    <row r="12" ht="13.8" customHeight="1" s="6">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>44399.87815965278</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>147_beta</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" customHeight="1" s="6">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>44400.45792892361</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>147_frdy</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" customHeight="1" s="6">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>44424.54973965278</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>148_beta</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
     <row r="15" ht="13.8" customHeight="1" s="6"/>
     <row r="16" ht="13.8" customHeight="1" s="6"/>
     <row r="17" ht="13.8" customHeight="1" s="6"/>
@@ -1349,7 +1481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1782,30 +1914,111 @@
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="6">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>2021-07-08</t>
         </is>
       </c>
       <c r="B16" s="10" t="n">
-        <v>44385.30145096128</v>
-      </c>
-      <c r="C16" t="inlineStr">
+        <v>44385.30145096065</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>146_earlyip</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>154</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>141</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>5.94</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-07-23</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44400.73038703704</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>147_live</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44424.90742158565</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>148_live</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2021-08-18</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44426.74011666342</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>148_hotfixwed</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>154</v>
+      </c>
+      <c r="E19" t="n">
+        <v>150</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.08</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1043,6 +1043,60 @@
       </c>
       <c r="G20" s="5" t="n">
         <v>5.13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-26</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44495.64975144676</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>152_fstcycle</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44497.3907918287</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>152_fnlrgrsn</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1995,30 +2049,57 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2021-08-18</t>
         </is>
       </c>
       <c r="B19" s="10" t="n">
-        <v>44426.74011666342</v>
-      </c>
-      <c r="C19" t="inlineStr">
+        <v>44426.74011666667</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>148_hotfixwed</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>154</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>4.08</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44497.87484470283</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>152_livetest</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>155</v>
+      </c>
+      <c r="E20" t="n">
+        <v>153</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.16</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1099,6 +1099,276 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-17</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44517.61623751157</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>153rsgn</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44518.43382762731</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>153fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-03</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44533.72297359954</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>154_scndrgsn</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44536.47749277778</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>154_fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>145</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-03</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44564.76343357639</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>lodash</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-19</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44580.76535050926</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>165_secondcyc</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>146</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44581.40616267361</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>156_fnlrsgn</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-28</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44589.59209490741</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>156audit</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-07</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44599.77019583333</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>secondcycle_157</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44600.42689202546</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>157_fnl</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>5.53</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1112,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1517,11 +1787,141 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="6"/>
-    <row r="16" ht="13.8" customHeight="1" s="6"/>
-    <row r="17" ht="13.8" customHeight="1" s="6"/>
-    <row r="18" ht="13.8" customHeight="1" s="6"/>
-    <row r="19" ht="13.8" customHeight="1" s="6"/>
+    <row r="15" ht="13.8" customHeight="1" s="6">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>44518.61075232639</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>153_beta</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" customHeight="1" s="6">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>44536.55479989584</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>154_beta</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8" customHeight="1" s="6">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>44553.52397479166</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>155_beta</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="18" ht="13.8" customHeight="1" s="6">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>44581.53989738426</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>156_beta</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="19" ht="13.8" customHeight="1" s="6">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022-02-08</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>44600.65054744451</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>157_beta</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>155</v>
+      </c>
+      <c r="E19" t="n">
+        <v>154</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1535,7 +1935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2076,30 +2476,192 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>2021-10-28</t>
         </is>
       </c>
       <c r="B20" s="10" t="n">
-        <v>44497.87484470283</v>
-      </c>
-      <c r="C20" t="inlineStr">
+        <v>44497.87484469907</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
         <is>
           <t>152_livetest</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>155</v>
-      </c>
-      <c r="E20" t="n">
-        <v>153</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="D20" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F20" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5" t="n">
         <v>4.16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2021-11-23</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44523.46302861111</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>153_live</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-06</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44536.87332621527</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>154_live</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-09</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44539.78707761574</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>154htfxx</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44553.80614680555</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>155_live</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2021-12-27</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44557.70875483796</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>155hftfxx</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-01-20</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44581.82316690972</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>156_live</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>3.44</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1369,6 +1369,168 @@
         <v>5.53</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44622.67875254629</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>158scndcycle</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44623.44559283565</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>158fnlrgsn</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-24</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44644.72282556713</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>159fstcycle</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44650.51875299768</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>160coludtest</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-08</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>44659.67687652778</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>160fnlcould</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>44663.40552784722</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>160fnltest</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1382,7 +1544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -1896,30 +2058,111 @@
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="6">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2022-02-08</t>
         </is>
       </c>
       <c r="B19" s="10" t="n">
-        <v>44600.65054744451</v>
-      </c>
-      <c r="C19" t="inlineStr">
+        <v>44600.65054744213</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>157_beta</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>155</v>
-      </c>
-      <c r="E19" t="n">
-        <v>154</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="D19" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F19" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>3.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>44623.55717026621</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>158_beta</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>44648.55986368056</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>159beta</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>44663.56186002315</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>160_beta</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>2.99</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +2178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2662,6 +2905,87 @@
       </c>
       <c r="G26" s="5" t="n">
         <v>3.44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-03</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44623.85687939815</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>158_live</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-03-28</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44648.81207832176</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>159live</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44663.81616866469</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>160_live</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>155</v>
+      </c>
+      <c r="E29" t="n">
+        <v>155</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.88</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1531,6 +1531,168 @@
         <v>4.12</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>44736.68194436342</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>163_flowwiintt</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>44739.69577432871</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>163_finalrun</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>44740.33962180556</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>163_relday</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>44755.43065770833</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>164_fstcycle</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>44755.61430166667</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>164_scndcycle</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>44756.50102228009</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>164finalrun</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>4.46</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1544,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2165,6 +2327,60 @@
         <v>2.99</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>44740.5188290162</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>163_beta</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>44756.53185710648</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>164_beta</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>148</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2178,7 +2394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2962,30 +3178,84 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
       <c r="B29" s="10" t="n">
-        <v>44663.81616866469</v>
-      </c>
-      <c r="C29" t="inlineStr">
+        <v>44663.81616866898</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
         <is>
           <t>160_live</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>155</v>
-      </c>
-      <c r="E29" t="n">
-        <v>155</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="D29" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="5" t="n">
         <v>2.88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44740.84681581018</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>163_live</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44756.81479289151</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>164_live</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>155</v>
+      </c>
+      <c r="E31" t="n">
+        <v>153</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.19</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1693,6 +1693,141 @@
         <v>4.46</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>44775.64808427083</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>165_fstcycle</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>145</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>44776.66374898148</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>165_scndcycle</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>44777.38665354167</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>165_finalrun</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>44795.66772075232</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>166fstcycle</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>44796.90077827546</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>166cyclescnd</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1706,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2381,6 +2516,60 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>44777.55462648148</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>165beta</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>44797.52063487269</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>166_beta</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2394,7 +2583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3232,30 +3421,84 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
       <c r="B31" s="10" t="n">
-        <v>44756.81479289151</v>
-      </c>
-      <c r="C31" t="inlineStr">
+        <v>44756.81479289352</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
         <is>
           <t>164_live</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>155</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E31" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="5" t="n">
         <v>3.19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44777.80886119213</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>165_live</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44797.91623644932</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>166_live</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>155</v>
+      </c>
+      <c r="E33" t="n">
+        <v>149</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -2583,7 +2583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3475,30 +3475,57 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>2022-08-24</t>
         </is>
       </c>
       <c r="B33" s="10" t="n">
-        <v>44797.91623644932</v>
-      </c>
-      <c r="C33" t="inlineStr">
+        <v>44797.91623644676</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
         <is>
           <t>166_live</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>155</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E33" s="5" t="n">
         <v>149</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="5" t="n">
         <v>4.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>44810.92667749344</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>htfx166tue</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>155</v>
+      </c>
+      <c r="E34" t="n">
+        <v>148</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.03</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1828,6 +1828,87 @@
         <v>3.38</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>44820.61133503472</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>fstcyc167</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>44823.62529790509</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle167</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>4.81</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>44824.37102759259</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>finalrun167</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1841,7 +1922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2568,6 +2649,33 @@
       </c>
       <c r="G26" s="5" t="n">
         <v>4.04</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>44824.51673351663</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>beta167</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>155</v>
+      </c>
+      <c r="E27" t="n">
+        <v>153</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.12</v>
       </c>
     </row>
   </sheetData>
@@ -3502,29 +3610,29 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="5" t="inlineStr">
         <is>
           <t>2022-09-06</t>
         </is>
       </c>
       <c r="B34" s="10" t="n">
-        <v>44810.92667749344</v>
-      </c>
-      <c r="C34" t="inlineStr">
+        <v>44810.92667748842</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
         <is>
           <t>htfx166tue</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>155</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E34" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="5" t="n">
         <v>4.03</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1909,6 +1909,87 @@
         <v>3.84</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>44867.67212908565</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>scndcycle169</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>44868.44701557871</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
+        <is>
+          <t>finalrun169</t>
+        </is>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-11-28</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>44893.45295806515</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>170cyclefst</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>155</v>
+      </c>
+      <c r="E55" t="n">
+        <v>148</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.73</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1922,7 +2003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2652,30 +2733,84 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>2022-09-20</t>
         </is>
       </c>
       <c r="B27" s="10" t="n">
-        <v>44824.51673351663</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>44824.51673351852</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
         <is>
           <t>beta167</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>155</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E27" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="5" t="n">
         <v>3.12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>44845.55141396991</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>beta168</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>44868.52638651621</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>beta169</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>2.99</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2826,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3634,6 +3769,168 @@
       </c>
       <c r="G34" s="5" t="n">
         <v>4.03</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>44824.86978638889</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>live167</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>44824.94156222222</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>rerun167</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-06</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>44840.92056372685</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>htfxthu167</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2022-10-11</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>44845.85057135417</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>live168</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-03</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>44868.83451489583</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>live169</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-16</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>44881.56615528935</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>htfxnov169</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>4.75</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -1964,30 +1964,111 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
       <c r="B55" s="10" t="n">
-        <v>44893.45295806515</v>
-      </c>
-      <c r="C55" t="inlineStr">
+        <v>44893.45295806713</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>170cyclefst</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>155</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="D55" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E55" s="5" t="n">
         <v>148</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="5" t="n">
         <v>5.73</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>44914.48719297453</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>finalrun171</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-19</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>44945.67508501157</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>scnd172release</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>44946.40187253472</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>finalrun172</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>3.8</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +2084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2813,6 +2894,60 @@
         <v>2.99</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>44894.5408787037</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>170beta</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>44946.58052778935</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>172beta</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>3.83</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2826,7 +2961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3931,6 +4066,60 @@
       </c>
       <c r="G40" s="5" t="n">
         <v>4.75</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2022-11-29</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>44894.88565768518</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>170live</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>44946.89559573358</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>172live</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>155</v>
+      </c>
+      <c r="E42" t="n">
+        <v>152</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -2961,7 +2961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4096,30 +4096,57 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="5" t="inlineStr">
         <is>
           <t>2023-01-20</t>
         </is>
       </c>
       <c r="B42" s="10" t="n">
-        <v>44946.89559573358</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>44946.89559572917</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
         <is>
           <t>172live</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>155</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E42" s="5" t="n">
         <v>152</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="5" t="n">
         <v>3.2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-02-03</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>44960.63467508847</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>172htfxthree</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>155</v>
+      </c>
+      <c r="E43" t="n">
+        <v>149</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.31</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2071,6 +2071,60 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-16</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>44973.76746145833</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>173cyclefst</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>44977.40885829861</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>173fnlrun</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2084,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2948,6 +3002,33 @@
         <v>3.83</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>44977.59068607639</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>173beta</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2961,7 +3042,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4123,30 +4204,57 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="5" t="inlineStr">
         <is>
           <t>2023-02-03</t>
         </is>
       </c>
       <c r="B43" s="10" t="n">
-        <v>44960.63467508847</v>
-      </c>
-      <c r="C43" t="inlineStr">
+        <v>44960.63467509259</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
         <is>
           <t>172htfxthree</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>155</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E43" s="5" t="n">
         <v>149</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="5" t="n">
         <v>4.31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>44977.84034873751</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>live173</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>155</v>
+      </c>
+      <c r="E44" t="n">
+        <v>147</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.27</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2125,6 +2125,141 @@
         <v>2.95</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>44995.7960968287</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>174ffiinnalrun</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>44998.47009619213</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>174finalrun</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45013.53435076389</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>175prerun</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45016.4500043287</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>175fnlrun</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45028.60502657553</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>176fstrtail</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>155</v>
+      </c>
+      <c r="E65" t="n">
+        <v>154</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2138,7 +2273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3029,6 +3164,60 @@
         <v>4.07</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>44998.53603851852</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>174beta</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>45016.54302363426</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>175beta</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3042,7 +3231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4231,30 +4420,111 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>2023-02-20</t>
         </is>
       </c>
       <c r="B44" s="10" t="n">
-        <v>44977.84034873751</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>44977.84034873843</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
         <is>
           <t>live173</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>155</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E44" s="5" t="n">
         <v>147</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="5" t="n">
         <v>4.27</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>44986.69101804398</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>173angularvrs</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>44998.83911592593</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>174live</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2023-03-31</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45016.80636225695</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>175live</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>3.44</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2234,30 +2234,84 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>2023-04-12</t>
         </is>
       </c>
       <c r="B65" s="10" t="n">
-        <v>45028.60502657553</v>
-      </c>
-      <c r="C65" t="inlineStr">
+        <v>45028.60502657407</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>176fstrtail</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>155</v>
-      </c>
-      <c r="E65" t="n">
-        <v>154</v>
-      </c>
-      <c r="F65" t="n">
+      <c r="D65" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65" s="5" t="n">
         <v>3.39</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45034.57321643519</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>176firsttrail</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45034.63282362559</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>176fstscndtr</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>155</v>
+      </c>
+      <c r="E67" t="n">
+        <v>155</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.34</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2288,30 +2288,84 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B67" s="10" t="n">
-        <v>45034.63282362559</v>
-      </c>
-      <c r="C67" t="inlineStr">
+        <v>45034.63282362268</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>176fstscndtr</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>155</v>
-      </c>
-      <c r="E67" t="n">
-        <v>155</v>
-      </c>
-      <c r="F67" t="n">
+      <c r="D67" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F67" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="5" t="n">
         <v>3.34</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45035.69645784723</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>176scndcyc</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45036.41314645833</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
+        <is>
+          <t>176fnlruntest</t>
+        </is>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>3.49</v>
       </c>
     </row>
   </sheetData>
@@ -2327,7 +2381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3272,6 +3326,33 @@
         <v>3.3</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45036.5189090162</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>176beta</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3285,7 +3366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4579,6 +4660,33 @@
       </c>
       <c r="G47" s="5" t="n">
         <v>3.44</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45054.54037847627</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>176htfxtrl</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>155</v>
+      </c>
+      <c r="E48" t="n">
+        <v>155</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.02</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2366,6 +2366,87 @@
       </c>
       <c r="G69" s="5" t="n">
         <v>3.49</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-09</t>
+        </is>
+      </c>
+      <c r="B70" s="10" t="n">
+        <v>45055.69569077546</v>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>176scndhtfx</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-11</t>
+        </is>
+      </c>
+      <c r="B71" s="10" t="n">
+        <v>45057.75206074074</v>
+      </c>
+      <c r="C71" s="5" t="inlineStr">
+        <is>
+          <t>176fxhh</t>
+        </is>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-05-12</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>45058.76826271369</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>177fstcycle</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>155</v>
+      </c>
+      <c r="E72" t="n">
+        <v>153</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.03</v>
       </c>
     </row>
   </sheetData>
@@ -4663,29 +4744,29 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="5" t="inlineStr">
         <is>
           <t>2023-05-08</t>
         </is>
       </c>
       <c r="B48" s="10" t="n">
-        <v>45054.54037847627</v>
-      </c>
-      <c r="C48" t="inlineStr">
+        <v>45054.54037847222</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
         <is>
           <t>176htfxtrl</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>155</v>
-      </c>
-      <c r="E48" t="n">
-        <v>155</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="D48" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="5" t="n">
         <v>3.02</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2423,30 +2423,192 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="5" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
       <c r="B72" s="10" t="n">
-        <v>45058.76826271369</v>
-      </c>
-      <c r="C72" t="inlineStr">
+        <v>45058.76826270833</v>
+      </c>
+      <c r="C72" s="5" t="inlineStr">
         <is>
           <t>177fstcycle</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>155</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="D72" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E72" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="5" t="n">
         <v>5.03</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="n">
+        <v>45062.82666796296</v>
+      </c>
+      <c r="C73" s="5" t="inlineStr">
+        <is>
+          <t>177ffstcycle</t>
+        </is>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="n">
+        <v>45063.65971741898</v>
+      </c>
+      <c r="C74" s="5" t="inlineStr">
+        <is>
+          <t>177scncycle</t>
+        </is>
+      </c>
+      <c r="D74" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="n">
+        <v>45064.36882311343</v>
+      </c>
+      <c r="C75" s="5" t="inlineStr">
+        <is>
+          <t>177fnlrun</t>
+        </is>
+      </c>
+      <c r="D75" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F75" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" s="5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="n">
+        <v>45071.63430237269</v>
+      </c>
+      <c r="C76" s="5" t="inlineStr">
+        <is>
+          <t>178dayone</t>
+        </is>
+      </c>
+      <c r="D76" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F76" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="n">
+        <v>45072.57421671296</v>
+      </c>
+      <c r="C77" s="5" t="inlineStr">
+        <is>
+          <t>178daytwo</t>
+        </is>
+      </c>
+      <c r="D77" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B78" s="10" t="n">
+        <v>45089.67924678636</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>178daytest</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>155</v>
+      </c>
+      <c r="E78" t="n">
+        <v>153</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.81</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +2624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3434,6 +3596,33 @@
         <v>3.19</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45064.50094078704</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>177beta</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3447,7 +3636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4768,6 +4957,87 @@
       </c>
       <c r="G48" s="5" t="n">
         <v>3.02</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45065.58888577546</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>177live</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45069.74592081019</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>177htfx</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45069.92495732639</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
+        <is>
+          <t>177htfxtest</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2585,30 +2585,57 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B78" s="10" t="n">
-        <v>45089.67924678636</v>
-      </c>
-      <c r="C78" t="inlineStr">
+        <v>45089.67924678241</v>
+      </c>
+      <c r="C78" s="5" t="inlineStr">
         <is>
           <t>178daytest</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>155</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="D78" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E78" s="5" t="n">
         <v>153</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78" s="5" t="n">
         <v>3.81</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="n">
+        <v>45138.39942909722</v>
+      </c>
+      <c r="C79" s="5" t="inlineStr">
+        <is>
+          <t>180fnlrun</t>
+        </is>
+      </c>
+      <c r="D79" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>139</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <v>5.98</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3623,6 +3650,33 @@
         <v>3.48</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45139.54659157407</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>180beta</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3636,7 +3690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5038,6 +5092,87 @@
       </c>
       <c r="G51" s="5" t="n">
         <v>3.14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-18</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45125.76796710648</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>179htfxslots</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45138.82175071759</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>179scndhtfx</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>150</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B54" s="10" t="n">
+        <v>45139.84929494545</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>180live</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>155</v>
+      </c>
+      <c r="E54" t="n">
+        <v>155</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3.09</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -2638,6 +2638,492 @@
         <v>5.98</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="n">
+        <v>45197.8377471412</v>
+      </c>
+      <c r="C80" s="5" t="inlineStr">
+        <is>
+          <t>183testwaf</t>
+        </is>
+      </c>
+      <c r="D80" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="n">
+        <v>45202.48577326389</v>
+      </c>
+      <c r="C81" s="5" t="inlineStr">
+        <is>
+          <t>183runscnd</t>
+        </is>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>129</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="n">
+        <v>45203.4640165625</v>
+      </c>
+      <c r="C82" s="5" t="inlineStr">
+        <is>
+          <t>183fnlrun</t>
+        </is>
+      </c>
+      <c r="D82" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>45226.6419977662</v>
+      </c>
+      <c r="C83" s="5" t="inlineStr">
+        <is>
+          <t>183fstrun</t>
+        </is>
+      </c>
+      <c r="D83" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>45229.36089947916</v>
+      </c>
+      <c r="C84" s="5" t="inlineStr">
+        <is>
+          <t>184fnlrun</t>
+        </is>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="n">
+        <v>45258.73863122685</v>
+      </c>
+      <c r="C85" s="5" t="inlineStr">
+        <is>
+          <t>185scnddyle</t>
+        </is>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="n">
+        <v>45259.33541319444</v>
+      </c>
+      <c r="C86" s="5" t="inlineStr">
+        <is>
+          <t>185lastcyc</t>
+        </is>
+      </c>
+      <c r="D86" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F86" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="n">
+        <v>45275.70565199074</v>
+      </c>
+      <c r="C87" s="5" t="inlineStr">
+        <is>
+          <t>186scndcycle</t>
+        </is>
+      </c>
+      <c r="D87" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F87" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B88" s="10" t="n">
+        <v>45278.43510581018</v>
+      </c>
+      <c r="C88" s="5" t="inlineStr">
+        <is>
+          <t>186fnlruun</t>
+        </is>
+      </c>
+      <c r="D88" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F88" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="B89" s="10" t="n">
+        <v>45281.72121798611</v>
+      </c>
+      <c r="C89" s="5" t="inlineStr">
+        <is>
+          <t>smalvthapp111</t>
+        </is>
+      </c>
+      <c r="D89" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F89" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B90" s="10" t="n">
+        <v>45300.62813253472</v>
+      </c>
+      <c r="C90" s="5" t="inlineStr">
+        <is>
+          <t>187scndcycle</t>
+        </is>
+      </c>
+      <c r="D90" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F90" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="n">
+        <v>45301.35218925926</v>
+      </c>
+      <c r="C91" s="5" t="inlineStr">
+        <is>
+          <t>187lstcycle</t>
+        </is>
+      </c>
+      <c r="D91" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F91" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="n">
+        <v>45323.66997811342</v>
+      </c>
+      <c r="C92" s="5" t="inlineStr">
+        <is>
+          <t>188firstcyc</t>
+        </is>
+      </c>
+      <c r="D92" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F92" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B93" s="10" t="n">
+        <v>45324.85271991898</v>
+      </c>
+      <c r="C93" s="5" t="inlineStr">
+        <is>
+          <t>188scndcycle</t>
+        </is>
+      </c>
+      <c r="D93" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F93" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="5" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B94" s="10" t="n">
+        <v>45327.4142124537</v>
+      </c>
+      <c r="C94" s="5" t="inlineStr">
+        <is>
+          <t>188lstrun</t>
+        </is>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B95" s="10" t="n">
+        <v>45357.74314894676</v>
+      </c>
+      <c r="C95" s="5" t="inlineStr">
+        <is>
+          <t>189ffstccycle</t>
+        </is>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G95" s="5" t="n">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B96" s="10" t="n">
+        <v>45358.56150648148</v>
+      </c>
+      <c r="C96" s="5" t="inlineStr">
+        <is>
+          <t>189scncycle</t>
+        </is>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="n">
+        <v>45359.37610903935</v>
+      </c>
+      <c r="C97" s="5" t="inlineStr">
+        <is>
+          <t>189fnlrun</t>
+        </is>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="5" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2651,7 +3137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -3677,6 +4163,195 @@
         <v>4</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45203.55121796297</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>183beta</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45229.57044121528</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>184beta</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45259.61500203704</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>185beta</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45278.53710994213</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>186beta</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45301.5759722338</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>187betaa</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45327.56064501157</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>188beta</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45359.46569076389</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>189beta</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>4.02</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3690,7 +4365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -5149,30 +5824,327 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B54" s="10" t="n">
-        <v>45139.84929494545</v>
-      </c>
-      <c r="C54" t="inlineStr">
+        <v>45139.84929494213</v>
+      </c>
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>180live</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>155</v>
-      </c>
-      <c r="E54" t="n">
-        <v>155</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
+      <c r="D54" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5" t="n">
         <v>3.09</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="n">
+        <v>45203.90929302084</v>
+      </c>
+      <c r="C55" s="5" t="inlineStr">
+        <is>
+          <t>183live</t>
+        </is>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="n">
+        <v>45217.55935246528</v>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>183waf</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>45219.01313994213</v>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>183livelbwaf</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>45229.83121155093</v>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>184lliivvee</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B59" s="10" t="n">
+        <v>45236.73909663194</v>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>htfx184</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B60" s="10" t="n">
+        <v>45259.87731607639</v>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>185live</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="n">
+        <v>45279.50677034722</v>
+      </c>
+      <c r="C61" s="5" t="inlineStr">
+        <is>
+          <t>186livvee</t>
+        </is>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="n">
+        <v>45301.8494490625</v>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>187live</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="n">
+        <v>45327.90680668982</v>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>188live</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B64" s="10" t="n">
+        <v>45338.5569684375</v>
+      </c>
+      <c r="C64" s="5" t="inlineStr">
+        <is>
+          <t>188htfixch</t>
+        </is>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>45359.75036764564</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>189livee</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>155</v>
+      </c>
+      <c r="E65" t="n">
+        <v>155</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>4.47</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -3124,6 +3124,195 @@
         <v>3.25</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="n">
+        <v>45379.51146578704</v>
+      </c>
+      <c r="C98" s="5" t="inlineStr">
+        <is>
+          <t>190masstrail</t>
+        </is>
+      </c>
+      <c r="D98" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F98" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B99" s="10" t="n">
+        <v>45380.40826674768</v>
+      </c>
+      <c r="C99" s="5" t="inlineStr">
+        <is>
+          <t>190fstcycle</t>
+        </is>
+      </c>
+      <c r="D99" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>152</v>
+      </c>
+      <c r="F99" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G99" s="5" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B100" s="10" t="n">
+        <v>45380.46256306713</v>
+      </c>
+      <c r="C100" s="5" t="inlineStr">
+        <is>
+          <t>190scndcycle</t>
+        </is>
+      </c>
+      <c r="D100" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F100" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B101" s="10" t="n">
+        <v>45383.38072798611</v>
+      </c>
+      <c r="C101" s="5" t="inlineStr">
+        <is>
+          <t>190fnlrun</t>
+        </is>
+      </c>
+      <c r="D101" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="F101" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G101" s="5" t="n">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="B102" s="10" t="n">
+        <v>45407.45873856481</v>
+      </c>
+      <c r="C102" s="5" t="inlineStr">
+        <is>
+          <t>191trail</t>
+        </is>
+      </c>
+      <c r="D102" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E102" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F102" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B103" s="10" t="n">
+        <v>45414.50755787037</v>
+      </c>
+      <c r="C103" s="5" t="inlineStr">
+        <is>
+          <t>191fstcycle</t>
+        </is>
+      </c>
+      <c r="D103" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E103" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F103" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G103" s="5" t="n">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B104" s="10" t="n">
+        <v>45415.35905292824</v>
+      </c>
+      <c r="C104" s="5" t="inlineStr">
+        <is>
+          <t>191lstrun</t>
+        </is>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F104" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3137,7 +3326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4352,6 +4541,60 @@
         <v>4.02</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45383.54779344908</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>190betatest</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45415.62367593719</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>191beta</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>155</v>
+      </c>
+      <c r="E46" t="n">
+        <v>155</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4365,7 +4608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6121,30 +6364,57 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B65" s="10" t="n">
-        <v>45359.75036764564</v>
-      </c>
-      <c r="C65" t="inlineStr">
+        <v>45359.75036765046</v>
+      </c>
+      <c r="C65" s="5" t="inlineStr">
         <is>
           <t>189livee</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>155</v>
-      </c>
-      <c r="E65" t="n">
-        <v>155</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="D65" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="n">
         <v>4.47</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B66" s="10" t="n">
+        <v>45383.86431619213</v>
+      </c>
+      <c r="C66" s="5" t="inlineStr">
+        <is>
+          <t>190livee</t>
+        </is>
+      </c>
+      <c r="D66" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>3.53</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -4569,29 +4569,29 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B46" s="10" t="n">
-        <v>45415.62367593719</v>
-      </c>
-      <c r="C46" t="inlineStr">
+        <v>45415.6236759375</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
         <is>
           <t>191beta</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>155</v>
-      </c>
-      <c r="E46" t="n">
-        <v>155</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="D46" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
         <v>3.35</v>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6415,6 +6415,33 @@
       </c>
       <c r="G66" s="5" t="n">
         <v>3.53</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>45418.57896616932</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>191live</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>155</v>
+      </c>
+      <c r="E67" t="n">
+        <v>155</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -3311,6 +3311,33 @@
       </c>
       <c r="G104" s="5" t="n">
         <v>3.16</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B105" s="10" t="n">
+        <v>45467.47611840278</v>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>193uifixes</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E105" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G105" s="5" t="n">
+        <v>7.16</v>
       </c>
     </row>
   </sheetData>
@@ -4608,7 +4635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -6418,30 +6445,84 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B67" s="10" t="n">
-        <v>45418.57896616932</v>
-      </c>
-      <c r="C67" t="inlineStr">
+        <v>45418.57896616899</v>
+      </c>
+      <c r="C67" s="5" t="inlineStr">
         <is>
           <t>191live</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>155</v>
-      </c>
-      <c r="E67" t="n">
-        <v>155</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="D67" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5" t="n">
         <v>3.47</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="n">
+        <v>45467.66866636574</v>
+      </c>
+      <c r="C68" s="5" t="inlineStr">
+        <is>
+          <t>193livepytest</t>
+        </is>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
+        <v>45471.5336950699</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>193pyieghtsd</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>155</v>
+      </c>
+      <c r="E69" t="n">
+        <v>155</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3.89</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/MASS_INTERVIEW_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
@@ -3340,6 +3340,87 @@
         <v>7.16</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B106" s="10" t="n">
+        <v>45489.65226150463</v>
+      </c>
+      <c r="C106" s="5" t="inlineStr">
+        <is>
+          <t>194fstcycle</t>
+        </is>
+      </c>
+      <c r="D106" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E106" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F106" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-17</t>
+        </is>
+      </c>
+      <c r="B107" s="10" t="n">
+        <v>45490.75804424768</v>
+      </c>
+      <c r="C107" s="5" t="inlineStr">
+        <is>
+          <t>194scncycle</t>
+        </is>
+      </c>
+      <c r="D107" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="F107" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G107" s="5" t="n">
+        <v>4.61</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B108" s="10" t="n">
+        <v>45491.31309318287</v>
+      </c>
+      <c r="C108" s="5" t="inlineStr">
+        <is>
+          <t>194fnlrun</t>
+        </is>
+      </c>
+      <c r="D108" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>149</v>
+      </c>
+      <c r="F108" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3353,7 +3434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -4620,6 +4701,33 @@
       </c>
       <c r="G46" s="5" t="n">
         <v>3.35</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45491.60462841671</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>194beta</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>155</v>
+      </c>
+      <c r="E47" t="n">
+        <v>155</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3.94</v>
       </c>
     </row>
   </sheetData>
@@ -6499,29 +6607,29 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="5" t="inlineStr">
         <is>
           <t>2024-06-28</t>
         </is>
       </c>
       <c r="B69" s="10" t="n">
-        <v>45471.5336950699</v>
-      </c>
-      <c r="C69" t="inlineStr">
+        <v>45471.53369506945</v>
+      </c>
+      <c r="C69" s="5" t="inlineStr">
         <is>
           <t>193pyieghtsd</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>155</v>
-      </c>
-      <c r="E69" t="n">
-        <v>155</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="D69" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>155</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="5" t="n">
         <v>3.89</v>
       </c>
     </row>
